--- a/biology/Médecine/Respiration_paradoxale/Respiration_paradoxale.xlsx
+++ b/biology/Médecine/Respiration_paradoxale/Respiration_paradoxale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La respiration paradoxale est un état pathologique se traduisant par un ventre qui dégonfle à l'inspiration et qui gonfle à l'expiration[1] (à l'opposé de son mouvement en temps normal, alors entraîné indirectement par le diaphragme). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La respiration paradoxale est un état pathologique se traduisant par un ventre qui dégonfle à l'inspiration et qui gonfle à l'expiration (à l'opposé de son mouvement en temps normal, alors entraîné indirectement par le diaphragme). 
 Il traduit un épuisement du diaphragme. Dans ce cas, on l'appelle aussi balancement thoraco-abdominal[réf. souhaitée].
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La respiration paradoxale fait aussi référence à un mouvement d'une partie de la cage thoracique opposé au mouvement général entraîné par la respiration. Cette situation implique des fractures de côtes multiples libérant une partie du gril costal, on parle alors d'un volet costal.
 La respiration implique normalement le thorax aussi bien que l'abdomen. En effet, physiologiquement, seul le muscle respiratoire principal, le diaphragme, est utilisé : il se contracte, ce qui rend plates ses deux coupoles normalement convexes vers le haut ; il crée une dépression dans la cage thoracique, ce qui induit l'inspiration, mais cela se fait aux dépens des viscères abdominaux (puisqu'il appuie dessus en se rigidifiant). La pression abdominale augmente donc et l'abdomen fait saillie vers l'avant parallèlement à l'augmentation de volume thoracique.
